--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1532.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1532.xlsx
@@ -351,10 +351,10 @@
         <v>1.821386959122087</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>0.9800948520775123</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1532.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1532.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.821386959122087</v>
+        <v>1.896318674087524</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>4.970314979553223</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>3.58087682723999</v>
       </c>
       <c r="D1">
-        <v>0.9800948520775123</v>
+        <v>1.190950870513916</v>
       </c>
       <c r="E1">
-        <v>0.6397734284983992</v>
+        <v>0.7839040756225586</v>
       </c>
     </row>
   </sheetData>
